--- a/docs/modello-dati/tipologiche/ElencoTipologiche.xlsx
+++ b/docs/modello-dati/tipologiche/ElencoTipologiche.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dxcportal-my.sharepoint.com/personal/claudia_tribo_dxc_com/Documents/WORK/ANAC/Obiettivo 3/Progettazione Servizi NPA/05-Modello dati/Tipologiche/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daltomare\OneDrive - DXC Production\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C69FA3BF-51C3-43D0-991B-87A1F048D2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACBEAE2-9997-4ADD-B51B-7B7C68F17949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3ADE3465-093F-455E-91B3-D79AEBCE0FF6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{3ADE3465-093F-455E-91B3-D79AEBCE0FF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tipologiche" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
-  <si>
-    <t>Tipologica</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="85">
   <si>
     <t>TED</t>
   </si>
@@ -198,6 +195,102 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>idTipologica</t>
+  </si>
+  <si>
+    <t>durata</t>
+  </si>
+  <si>
+    <t>errori</t>
+  </si>
+  <si>
+    <t>esito</t>
+  </si>
+  <si>
+    <t>esitoOperazione</t>
+  </si>
+  <si>
+    <t>lingue</t>
+  </si>
+  <si>
+    <t>motiviVariazioneAnagrafica</t>
+  </si>
+  <si>
+    <t>motivoEsclusioneTracciabilita</t>
+  </si>
+  <si>
+    <t>statoAppalto</t>
+  </si>
+  <si>
+    <t>statoAvviso</t>
+  </si>
+  <si>
+    <t>statoContratto</t>
+  </si>
+  <si>
+    <t>statoDocumento</t>
+  </si>
+  <si>
+    <t>statoFascicolo</t>
+  </si>
+  <si>
+    <t>statoLotto</t>
+  </si>
+  <si>
+    <t>statoPiano</t>
+  </si>
+  <si>
+    <t>statoRichiestaDocumento</t>
+  </si>
+  <si>
+    <t>statoScheda</t>
+  </si>
+  <si>
+    <t>tipoAvviso</t>
+  </si>
+  <si>
+    <t>tipoAzioneAvviso</t>
+  </si>
+  <si>
+    <t>tipoAzioneDocumento</t>
+  </si>
+  <si>
+    <t>tipoAzioneFascicolo</t>
+  </si>
+  <si>
+    <t>tipoDocumento</t>
+  </si>
+  <si>
+    <t>tipoFascicolo</t>
+  </si>
+  <si>
+    <t>tipoOggettoDocumento</t>
+  </si>
+  <si>
+    <t>tipoOggettoFascicolo</t>
+  </si>
+  <si>
+    <t>tipoOperazione</t>
+  </si>
+  <si>
+    <t>tipoOperazioneSoggetto</t>
+  </si>
+  <si>
+    <t>tipoPiano</t>
+  </si>
+  <si>
+    <t>tipoRicercaOperazione</t>
+  </si>
+  <si>
+    <t>tipoRuolo</t>
+  </si>
+  <si>
+    <t>tipoScheda</t>
+  </si>
+  <si>
+    <t>tipoServizioSoggetto</t>
   </si>
 </sst>
 </file>
@@ -253,7 +346,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -269,7 +362,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -565,323 +658,479 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF5E619-E8E2-4448-96D1-31AEAD17A757}">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>38</v>
+      </c>
+      <c r="B46" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>40</v>
+      </c>
+      <c r="B57" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>41</v>
+      </c>
+      <c r="B62" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>48</v>
+      </c>
+      <c r="B76" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/modello-dati/tipologiche/ElencoTipologiche.xlsx
+++ b/docs/modello-dati/tipologiche/ElencoTipologiche.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daltomare\OneDrive - DXC Production\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACBEAE2-9997-4ADD-B51B-7B7C68F17949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F73B2C40-8566-470A-A81E-624D0289ED66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{3ADE3465-093F-455E-91B3-D79AEBCE0FF6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="84">
   <si>
     <t>TED</t>
   </si>
@@ -285,9 +285,6 @@
   </si>
   <si>
     <t>tipoRuolo</t>
-  </si>
-  <si>
-    <t>tipoScheda</t>
   </si>
   <si>
     <t>tipoServizioSoggetto</t>
@@ -658,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF5E619-E8E2-4448-96D1-31AEAD17A757}">
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81:XFD81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1121,11 +1118,6 @@
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
         <v>51</v>
       </c>
     </row>
